--- a/data/rr_table_quanti.xlsx
+++ b/data/rr_table_quanti.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/data_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/steps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31167369-01F0-F847-A9C7-43C02149E883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B12903F-9929-0C47-89F7-81088967B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{8D5AF9D6-033C-0248-AC54-73E73626E3DE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>mort</t>
   </si>
@@ -58,10 +58,43 @@
     <t>dep</t>
   </si>
   <si>
-    <t>fall</t>
-  </si>
-  <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>mort_low</t>
+  </si>
+  <si>
+    <t>cvd_low</t>
+  </si>
+  <si>
+    <t>cancer_low</t>
+  </si>
+  <si>
+    <t>diab2_low</t>
+  </si>
+  <si>
+    <t>dem_low</t>
+  </si>
+  <si>
+    <t>dep_low</t>
+  </si>
+  <si>
+    <t>mort_up</t>
+  </si>
+  <si>
+    <t>cvd_up</t>
+  </si>
+  <si>
+    <t>cancer_up</t>
+  </si>
+  <si>
+    <t>diab2_up</t>
+  </si>
+  <si>
+    <t>dem_up</t>
+  </si>
+  <si>
+    <t>dep_up</t>
   </si>
 </sst>
 </file>
@@ -433,17 +466,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC4CE06-7EA9-B14D-928F-EF7AE123DA92}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -463,11 +496,8 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -489,11 +519,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3000</v>
       </c>
@@ -515,11 +542,8 @@
       <c r="G3">
         <v>0.95</v>
       </c>
-      <c r="H3">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4000</v>
       </c>
@@ -541,11 +565,8 @@
       <c r="G4">
         <v>0.91</v>
       </c>
-      <c r="H4">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5000</v>
       </c>
@@ -567,11 +588,8 @@
       <c r="G5">
         <v>0.86</v>
       </c>
-      <c r="H5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6000</v>
       </c>
@@ -593,11 +611,8 @@
       <c r="G6">
         <v>0.82</v>
       </c>
-      <c r="H6">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7000</v>
       </c>
@@ -619,11 +634,8 @@
       <c r="G7">
         <v>0.78</v>
       </c>
-      <c r="H7">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8000</v>
       </c>
@@ -645,11 +657,8 @@
       <c r="G8">
         <v>0.74</v>
       </c>
-      <c r="H8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9000</v>
       </c>
@@ -671,11 +680,8 @@
       <c r="G9">
         <v>0.71</v>
       </c>
-      <c r="H9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -697,11 +703,8 @@
       <c r="G10">
         <v>0.67</v>
       </c>
-      <c r="H10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11000</v>
       </c>
@@ -723,11 +726,8 @@
       <c r="G11">
         <v>0.64</v>
       </c>
-      <c r="H11">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12000</v>
       </c>
@@ -748,9 +748,6 @@
       </c>
       <c r="G12">
         <v>0.61</v>
-      </c>
-      <c r="H12">
-        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -760,41 +757,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1963C041-65CA-D640-B0E8-C5D30E880262}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -816,11 +810,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3000</v>
       </c>
@@ -842,11 +833,8 @@
       <c r="G3">
         <v>0.94</v>
       </c>
-      <c r="H3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4000</v>
       </c>
@@ -868,11 +856,8 @@
       <c r="G4">
         <v>0.88</v>
       </c>
-      <c r="H4">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5000</v>
       </c>
@@ -894,11 +879,8 @@
       <c r="G5">
         <v>0.83</v>
       </c>
-      <c r="H5">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6000</v>
       </c>
@@ -920,11 +902,8 @@
       <c r="G6">
         <v>0.78</v>
       </c>
-      <c r="H6">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7000</v>
       </c>
@@ -946,11 +925,8 @@
       <c r="G7">
         <v>0.73</v>
       </c>
-      <c r="H7">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8000</v>
       </c>
@@ -972,11 +948,8 @@
       <c r="G8">
         <v>0.69</v>
       </c>
-      <c r="H8">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9000</v>
       </c>
@@ -998,11 +971,8 @@
       <c r="G9">
         <v>0.64</v>
       </c>
-      <c r="H9">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -1024,11 +994,8 @@
       <c r="G10">
         <v>0.61</v>
       </c>
-      <c r="H10">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11000</v>
       </c>
@@ -1050,11 +1017,8 @@
       <c r="G11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12000</v>
       </c>
@@ -1075,9 +1039,6 @@
       </c>
       <c r="G12">
         <v>0.53</v>
-      </c>
-      <c r="H12">
-        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -1087,41 +1048,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F58D6C-4153-0E49-9475-4720EB465FBD}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1143,11 +1101,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3000</v>
       </c>
@@ -1169,11 +1124,8 @@
       <c r="G3">
         <v>0.96</v>
       </c>
-      <c r="H3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4000</v>
       </c>
@@ -1195,11 +1147,8 @@
       <c r="G4">
         <v>0.93</v>
       </c>
-      <c r="H4">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5000</v>
       </c>
@@ -1221,11 +1170,8 @@
       <c r="G5">
         <v>0.9</v>
       </c>
-      <c r="H5">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6000</v>
       </c>
@@ -1247,11 +1193,8 @@
       <c r="G6">
         <v>0.87</v>
       </c>
-      <c r="H6">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7000</v>
       </c>
@@ -1273,11 +1216,8 @@
       <c r="G7">
         <v>0.83</v>
       </c>
-      <c r="H7">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8000</v>
       </c>
@@ -1299,11 +1239,8 @@
       <c r="G8">
         <v>0.8</v>
       </c>
-      <c r="H8">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9000</v>
       </c>
@@ -1325,11 +1262,8 @@
       <c r="G9">
         <v>0.78</v>
       </c>
-      <c r="H9">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -1351,11 +1285,8 @@
       <c r="G10">
         <v>0.75</v>
       </c>
-      <c r="H10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11000</v>
       </c>
@@ -1377,11 +1308,8 @@
       <c r="G11">
         <v>0.72</v>
       </c>
-      <c r="H11">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12000</v>
       </c>
@@ -1402,9 +1330,6 @@
       </c>
       <c r="G12">
         <v>0.7</v>
-      </c>
-      <c r="H12">
-        <v>0.92</v>
       </c>
     </row>
   </sheetData>

--- a/data/rr_table_quanti.xlsx
+++ b/data/rr_table_quanti.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/steps/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/PhD/PROJETS/MARCHE/steps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B12903F-9929-0C47-89F7-81088967B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B2348-40DD-2948-895F-4682DB19812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{8D5AF9D6-033C-0248-AC54-73E73626E3DE}"/>
+    <workbookView xWindow="-35140" yWindow="-2340" windowWidth="32720" windowHeight="19460" activeTab="2" xr2:uid="{8D5AF9D6-033C-0248-AC54-73E73626E3DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mid" sheetId="1" r:id="rId1"/>
+    <sheet name="Central" sheetId="1" r:id="rId1"/>
     <sheet name="Lower" sheetId="2" r:id="rId2"/>
     <sheet name="Upper" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>mort</t>
   </si>
@@ -60,51 +60,22 @@
   <si>
     <t>step</t>
   </si>
-  <si>
-    <t>mort_low</t>
-  </si>
-  <si>
-    <t>cvd_low</t>
-  </si>
-  <si>
-    <t>cancer_low</t>
-  </si>
-  <si>
-    <t>diab2_low</t>
-  </si>
-  <si>
-    <t>dem_low</t>
-  </si>
-  <si>
-    <t>dep_low</t>
-  </si>
-  <si>
-    <t>mort_up</t>
-  </si>
-  <si>
-    <t>cvd_up</t>
-  </si>
-  <si>
-    <t>cancer_up</t>
-  </si>
-  <si>
-    <t>diab2_up</t>
-  </si>
-  <si>
-    <t>dem_up</t>
-  </si>
-  <si>
-    <t>dep_up</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC4CE06-7EA9-B14D-928F-EF7AE123DA92}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,48 +471,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.9476681860946401</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>1.18307809146785</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0259182920000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0587103499999999</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.23182733947379</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.0988227370000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.77</v>
+        <v>0.98098899685486796</v>
       </c>
       <c r="C3">
-        <v>0.93</v>
-      </c>
-      <c r="D3">
-        <v>0.99</v>
-      </c>
-      <c r="E3">
-        <v>0.97</v>
+        <v>0.99054730264050606</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0002312179999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.98734633000000005</v>
       </c>
       <c r="F3">
-        <v>0.9</v>
+        <v>0.98767208497389603</v>
       </c>
       <c r="G3">
-        <v>0.95</v>
+        <v>0.99029234399999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -548,206 +520,114 @@
         <v>4000</v>
       </c>
       <c r="B4">
-        <v>0.64</v>
+        <v>0.68414623611867398</v>
       </c>
       <c r="C4">
-        <v>0.87</v>
-      </c>
-      <c r="D4">
-        <v>0.97</v>
-      </c>
-      <c r="E4">
-        <v>0.94</v>
+        <v>0.86999592142207705</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.97519536299999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.93292032999999996</v>
       </c>
       <c r="F4">
-        <v>0.81</v>
+        <v>0.802692892265081</v>
       </c>
       <c r="G4">
-        <v>0.91</v>
+        <v>0.89691209999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="B5">
-        <v>0.56999999999999995</v>
+        <v>0.58053933480361097</v>
       </c>
       <c r="C5">
-        <v>0.82</v>
-      </c>
-      <c r="D5">
-        <v>0.96</v>
-      </c>
-      <c r="E5">
-        <v>0.91</v>
+        <v>0.78092097761533597</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.95077829700000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.87765811000000005</v>
       </c>
       <c r="F5">
-        <v>0.73</v>
+        <v>0.66422872369433394</v>
       </c>
       <c r="G5">
-        <v>0.86</v>
+        <v>0.81636997</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="B6">
-        <v>0.54</v>
+        <v>0.55564419069011906</v>
       </c>
       <c r="C6">
-        <v>0.78</v>
-      </c>
-      <c r="D6">
-        <v>0.95</v>
-      </c>
-      <c r="E6">
-        <v>0.88</v>
+        <v>0.72578417029272801</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.92698025100000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.82566938999999995</v>
       </c>
       <c r="F6">
-        <v>0.67</v>
+        <v>0.57759413920027103</v>
       </c>
       <c r="G6">
-        <v>0.82</v>
+        <v>0.73210290200000006</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="B7">
-        <v>0.53</v>
+        <v>0.53657677840717999</v>
       </c>
       <c r="C7">
-        <v>0.75</v>
-      </c>
-      <c r="D7">
-        <v>0.94</v>
-      </c>
-      <c r="E7">
-        <v>0.86</v>
+        <v>0.69842658049740303</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.90377040099999995</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.77676025999999998</v>
       </c>
       <c r="F7">
-        <v>0.62</v>
+        <v>0.54717719375149798</v>
       </c>
       <c r="G7">
-        <v>0.78</v>
+        <v>0.66636053299999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.48033491853156901</v>
       </c>
       <c r="C8">
-        <v>0.73</v>
-      </c>
-      <c r="D8">
-        <v>0.93</v>
-      </c>
-      <c r="E8">
-        <v>0.83</v>
+        <v>0.69287588838136505</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.88503558299999996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.73074828999999997</v>
       </c>
       <c r="F8">
-        <v>0.57999999999999996</v>
+        <v>0.57759413920027103</v>
       </c>
       <c r="G8">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9000</v>
-      </c>
-      <c r="B9">
-        <v>0.52</v>
-      </c>
-      <c r="C9">
-        <v>0.71</v>
-      </c>
-      <c r="D9">
-        <v>0.91</v>
-      </c>
-      <c r="E9">
-        <v>0.81</v>
-      </c>
-      <c r="F9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G9">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10000</v>
-      </c>
-      <c r="B10">
-        <v>0.52</v>
-      </c>
-      <c r="C10">
-        <v>0.7</v>
-      </c>
-      <c r="D10">
-        <v>0.9</v>
-      </c>
-      <c r="E10">
-        <v>0.78</v>
-      </c>
-      <c r="F10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G10">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11000</v>
-      </c>
-      <c r="B11">
-        <v>0.49</v>
-      </c>
-      <c r="C11">
-        <v>0.69</v>
-      </c>
-      <c r="D11">
-        <v>0.89</v>
-      </c>
-      <c r="E11">
-        <v>0.76</v>
-      </c>
-      <c r="F11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G11">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12000</v>
-      </c>
-      <c r="B12">
-        <v>0.45</v>
-      </c>
-      <c r="C12">
-        <v>0.69</v>
-      </c>
-      <c r="D12">
-        <v>0.88</v>
-      </c>
-      <c r="E12">
-        <v>0.73</v>
-      </c>
-      <c r="F12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G12">
-        <v>0.61</v>
+        <v>0.60352564399999997</v>
       </c>
     </row>
   </sheetData>
@@ -757,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1963C041-65CA-D640-B0E8-C5D30E880262}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,68 +650,68 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.4971967492890099</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.07979706218016</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>0.99913196969009099</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.99599687000000003</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>1.1461024791234</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.0666540229999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.71</v>
+        <v>0.98098623927964401</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>0.99054730264050606</v>
       </c>
       <c r="D3">
-        <v>0.97</v>
-      </c>
-      <c r="E3">
-        <v>0.94</v>
+        <v>1.0002312183081601</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.98734633000000005</v>
       </c>
       <c r="F3">
-        <v>0.86</v>
-      </c>
-      <c r="G3">
-        <v>0.94</v>
+        <v>0.98767208497389603</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.99029234399999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -839,206 +719,114 @@
         <v>4000</v>
       </c>
       <c r="B4">
-        <v>0.56999999999999995</v>
+        <v>0.62299909564088696</v>
       </c>
       <c r="C4">
-        <v>0.81</v>
+        <v>0.81150553569056405</v>
       </c>
       <c r="D4">
-        <v>0.95</v>
-      </c>
-      <c r="E4">
-        <v>0.89</v>
+        <v>0.94973339637425103</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.87765811000000005</v>
       </c>
       <c r="F4">
-        <v>0.75</v>
-      </c>
-      <c r="G4">
-        <v>0.88</v>
+        <v>0.74683219337600304</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.87497672000000004</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.52163313731146899</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.70045362354503704</v>
       </c>
       <c r="D5">
-        <v>0.92</v>
-      </c>
-      <c r="E5">
-        <v>0.83</v>
+        <v>0.89780999806166695</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.78015559000000001</v>
       </c>
       <c r="F5">
-        <v>0.66</v>
-      </c>
-      <c r="G5">
-        <v>0.83</v>
+        <v>0.58020394448714896</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.77692706700000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="B6">
-        <v>0.47</v>
+        <v>0.49926124819064099</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.636992396229353</v>
       </c>
       <c r="D6">
-        <v>0.9</v>
-      </c>
-      <c r="E6">
-        <v>0.78</v>
+        <v>0.85248302907414297</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.68746187999999997</v>
       </c>
       <c r="F6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G6">
-        <v>0.78</v>
+        <v>0.48446756912310301</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.68306597300000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="B7">
-        <v>0.46</v>
+        <v>0.47998398678790399</v>
       </c>
       <c r="C7">
-        <v>0.67</v>
+        <v>0.61565388415823796</v>
       </c>
       <c r="D7">
-        <v>0.87</v>
-      </c>
-      <c r="E7">
-        <v>0.74</v>
+        <v>0.80943775199485601</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.60842947999999997</v>
       </c>
       <c r="F7">
-        <v>0.53</v>
-      </c>
-      <c r="G7">
-        <v>0.73</v>
+        <v>0.45483525662899998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.60054430199999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="B8">
-        <v>0.46</v>
+        <v>0.42020189768934701</v>
       </c>
       <c r="C8">
-        <v>0.64</v>
+        <v>0.62419006741594396</v>
       </c>
       <c r="D8">
-        <v>0.85</v>
-      </c>
-      <c r="E8">
-        <v>0.69</v>
+        <v>0.76856600308638201</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.54083663999999998</v>
       </c>
       <c r="F8">
-        <v>0.49</v>
-      </c>
-      <c r="G8">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9000</v>
-      </c>
-      <c r="B9">
-        <v>0.46</v>
-      </c>
-      <c r="C9">
-        <v>0.62</v>
-      </c>
-      <c r="D9">
-        <v>0.83</v>
-      </c>
-      <c r="E9">
-        <v>0.65</v>
-      </c>
-      <c r="F9">
-        <v>0.47</v>
-      </c>
-      <c r="G9">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10000</v>
-      </c>
-      <c r="B10">
-        <v>0.45</v>
-      </c>
-      <c r="C10">
-        <v>0.62</v>
-      </c>
-      <c r="D10">
-        <v>0.81</v>
-      </c>
-      <c r="E10">
-        <v>0.61</v>
-      </c>
-      <c r="F10">
-        <v>0.46</v>
-      </c>
-      <c r="G10">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11000</v>
-      </c>
-      <c r="B11">
-        <v>0.43</v>
-      </c>
-      <c r="C11">
-        <v>0.62</v>
-      </c>
-      <c r="D11">
-        <v>0.78</v>
-      </c>
-      <c r="E11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F11">
-        <v>0.47</v>
-      </c>
-      <c r="G11">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12000</v>
-      </c>
-      <c r="B12">
-        <v>0.39</v>
-      </c>
-      <c r="C12">
-        <v>0.62</v>
-      </c>
-      <c r="D12">
-        <v>0.76</v>
-      </c>
-      <c r="E12">
-        <v>0.54</v>
-      </c>
-      <c r="F12">
-        <v>0.49</v>
-      </c>
-      <c r="G12">
-        <v>0.53</v>
+        <v>0.482288393963692</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.53061329499999998</v>
       </c>
     </row>
   </sheetData>
@@ -1048,10 +836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F58D6C-4153-0E49-9475-4720EB465FBD}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,275 +849,183 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2000</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.477821633</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.285009879</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0487879899999999</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1.12047486923464</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.32994635834779</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.1208057360000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3000</v>
-      </c>
-      <c r="B3">
-        <v>0.83</v>
-      </c>
-      <c r="C3">
-        <v>0.96</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>2000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.98098899699999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99054730300000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0002312200000001</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.98734633487204804</v>
       </c>
       <c r="F3">
-        <v>0.93</v>
+        <v>0.98767208497389603</v>
       </c>
       <c r="G3">
-        <v>0.96</v>
+        <v>0.99029234399999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4000</v>
       </c>
-      <c r="B4">
-        <v>0.73</v>
-      </c>
-      <c r="C4">
-        <v>0.93</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="B4" s="1">
+        <v>0.75129705899999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.92462308100000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.99693434999999997</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.99166216992258405</v>
       </c>
       <c r="F4">
-        <v>0.87</v>
+        <v>0.86273179572012704</v>
       </c>
       <c r="G4">
-        <v>0.93</v>
+        <v>0.92396164700000005</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5000</v>
-      </c>
-      <c r="B5">
-        <v>0.66</v>
-      </c>
-      <c r="C5">
-        <v>0.9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>6000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.64323076400000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.86685345400000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0024416300000001</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.99166216992258405</v>
       </c>
       <c r="F5">
-        <v>0.81</v>
+        <v>0.75700147923349603</v>
       </c>
       <c r="G5">
-        <v>0.9</v>
+        <v>0.86207384200000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6000</v>
-      </c>
-      <c r="B6">
-        <v>0.62</v>
-      </c>
-      <c r="C6">
-        <v>0.87</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>8000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.61564377599999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.82336353100000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0079876699999999</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.98734633487204804</v>
       </c>
       <c r="F6">
-        <v>0.77</v>
+        <v>0.6886219241514</v>
       </c>
       <c r="G6">
-        <v>0.87</v>
+        <v>0.80035804200000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7000</v>
-      </c>
-      <c r="B7">
-        <v>0.6</v>
-      </c>
-      <c r="C7">
-        <v>0.85</v>
-      </c>
-      <c r="D7">
-        <v>1.01</v>
+        <v>10000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.599838804</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.792327801</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0090966699999999</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.98734633487204804</v>
       </c>
       <c r="F7">
-        <v>0.73</v>
+        <v>0.65826665149219399</v>
       </c>
       <c r="G7">
-        <v>0.83</v>
+        <v>0.74306047200000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8000</v>
-      </c>
-      <c r="B8">
-        <v>0.6</v>
-      </c>
-      <c r="C8">
-        <v>0.83</v>
-      </c>
-      <c r="D8">
-        <v>1.01</v>
+        <v>12000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.54419919999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.77247272</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0102068799999999</v>
       </c>
       <c r="E8">
-        <v>0.99</v>
+        <v>0.98304928286350901</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>0.6886219241514</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9000</v>
-      </c>
-      <c r="B9">
-        <v>0.6</v>
-      </c>
-      <c r="C9">
-        <v>0.81</v>
-      </c>
-      <c r="D9">
-        <v>1.01</v>
-      </c>
-      <c r="E9">
-        <v>0.99</v>
-      </c>
-      <c r="F9">
-        <v>0.67</v>
-      </c>
-      <c r="G9">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10000</v>
-      </c>
-      <c r="B10">
-        <v>0.59</v>
-      </c>
-      <c r="C10">
-        <v>0.79</v>
-      </c>
-      <c r="D10">
-        <v>1.01</v>
-      </c>
-      <c r="E10">
-        <v>0.99</v>
-      </c>
-      <c r="F10">
-        <v>0.66</v>
-      </c>
-      <c r="G10">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11000</v>
-      </c>
-      <c r="B11">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C11">
-        <v>0.78</v>
-      </c>
-      <c r="D11">
-        <v>1.01</v>
-      </c>
-      <c r="E11">
-        <v>0.99</v>
-      </c>
-      <c r="F11">
-        <v>0.67</v>
-      </c>
-      <c r="G11">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12000</v>
-      </c>
-      <c r="B12">
-        <v>0.53</v>
-      </c>
-      <c r="C12">
-        <v>0.78</v>
-      </c>
-      <c r="D12">
-        <v>1.01</v>
-      </c>
-      <c r="E12">
-        <v>0.99</v>
-      </c>
-      <c r="F12">
-        <v>0.7</v>
-      </c>
-      <c r="G12">
-        <v>0.7</v>
+        <v>0.68986483099999996</v>
       </c>
     </row>
   </sheetData>
